--- a/directory.xlsx
+++ b/directory.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/PycharmProjects/notebook/powerpoint_api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasert\1drv\PycharmProjects\notebook\automate_pptx_nameplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_FF19E8A40742CEF7564DB734342B4A0319B1083E" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6CA96C27-BE4D-1E46-8045-7A92A650ED18}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA83F34C-0036-44AE-BF20-4A911192DDEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
-    <sheet name="param" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_photo">param!$C$3</definedName>
-    <definedName name="_qr">param!$C$4</definedName>
+    <definedName name="_photo">#REF!</definedName>
+    <definedName name="_qr">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>มะลิลา</t>
   </si>
@@ -93,18 +92,6 @@
   </si>
   <si>
     <t>0867414624</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>file:///C:/Users/prasert/Pictures/person/</t>
-  </si>
-  <si>
-    <t>qr</t>
-  </si>
-  <si>
-    <t>https://zxing.org/w/chart?cht=qr&amp;chs=230x230&amp;chld=L&amp;choe=UTF-8&amp;chl=</t>
   </si>
   <si>
     <t>fname</t>
@@ -170,7 +157,7 @@
     <numFmt numFmtId="180" formatCode="#,##0,&quot;K&quot;_);[Red]\(#,##0,&quot;K&quot;\)"/>
     <numFmt numFmtId="181" formatCode="#,##0.0,&quot;K&quot;_);[Red]\(#,##0.0,&quot;K&quot;\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
@@ -786,44 +773,44 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="b">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -835,15 +822,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="b">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -855,7 +842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -863,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -875,7 +862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -895,15 +882,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="b">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -915,7 +902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="b">
         <v>1</v>
       </c>
@@ -951,39 +938,4 @@
     <oddFooter>&amp;L&amp;8&amp;Z&amp;F&amp;R&amp;8&amp;D &amp;T</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>